--- a/data/TH19_BGM_Map.xlsx
+++ b/data/TH19_BGM_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VincentDirac\Dialogue_Converter_for_THBWiki\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC4A53-A0B3-4171-BFCA-BAA04E807ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E0300-F4FC-49C4-9C85-FC7C387E3710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,90 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19;22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>th19_01.wav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +382,90 @@
   </si>
   <si>
     <t>bgm\nja\n{{兽王园音乐名|2|22}}\nzh\n{{兽王园音乐名|1|22}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;23\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;22\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;13\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;12\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;11\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;10\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;9\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;8\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;7\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;6\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;5\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;4\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;3\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;19\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;18\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;17\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;16\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;15\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;14\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;2\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t19;1\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +794,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -809,22 +809,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -838,10 +838,10 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,13 +855,13 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,13 +875,13 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,13 +895,13 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,13 +915,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,13 +935,13 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,13 +955,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,13 +975,13 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,13 +1015,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,13 +1035,13 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
         <v>108</v>
       </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,13 +1075,13 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,13 +1095,13 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,13 +1115,13 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,13 +1135,13 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1155,13 +1155,13 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,13 +1175,13 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,13 +1195,13 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,13 +1215,13 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,10 +1252,10 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,10 +1263,10 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,14 +1274,15 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/TH19_BGM_Map.xlsx
+++ b/data/TH19_BGM_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VincentDirac\Dialogue_Converter_for_THBWiki\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E0300-F4FC-49C4-9C85-FC7C387E3710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC0B59-CC50-4312-A2D1-61A0C650F12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,94 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|1}}\nzh\n{{兽王园音乐名|1|1}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|2}}\nzh\n{{兽王园音乐名|1|2}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|3}}\nzh\n{{兽王园音乐名|1|3}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|4}}\nzh\n{{兽王园音乐名|1|4}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|5}}\nzh\n{{兽王园音乐名|1|5}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|6}}\nzh\n{{兽王园音乐名|1|6}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|7}}\nzh\n{{兽王园音乐名|1|7}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|8}}\nzh\n{{兽王园音乐名|1|8}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|9}}\nzh\n{{兽王园音乐名|1|9}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|10}}\nzh\n{{兽王园音乐名|1|10}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|11}}\nzh\n{{兽王园音乐名|1|11}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|12}}\nzh\n{{兽王园音乐名|1|12}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|13}}\nzh\n{{兽王园音乐名|1|13}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|14}}\nzh\n{{兽王园音乐名|1|14}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|15}}\nzh\n{{兽王园音乐名|1|15}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|16}}\nzh\n{{兽王园音乐名|1|16}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|17}}\nzh\n{{兽王园音乐名|1|17}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|18}}\nzh\n{{兽王园音乐名|1|18}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|19}}\nzh\n{{兽王园音乐名|1|19}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|20}}\nzh\n{{兽王园音乐名|1|20}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|21}}\nzh\n{{兽王园音乐名|1|21}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm\nja\n{{兽王园音乐名|2|22}}\nzh\n{{兽王园音乐名|1|22}}\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\t19;23\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +378,94 @@
   </si>
   <si>
     <t>\t19;1\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|1}}\nzh\nBGM: {{兽王园音乐名|1|1}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|2}}\nzh\nBGM: {{兽王园音乐名|1|2}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|3}}\nzh\nBGM: {{兽王园音乐名|1|3}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|4}}\nzh\nBGM: {{兽王园音乐名|1|4}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|5}}\nzh\nBGM: {{兽王园音乐名|1|5}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|7}}\nzh\nBGM: {{兽王园音乐名|1|7}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|6}}\nzh\nBGM: {{兽王园音乐名|1|6}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|8}}\nzh\nBGM: {{兽王园音乐名|1|8}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|9}}\nzh\nBGM: {{兽王园音乐名|1|9}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|10}}\nzh\nBGM: {{兽王园音乐名|1|10}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|11}}\nzh\nBGM: {{兽王园音乐名|1|11}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|12}}\nzh\nBGM: {{兽王园音乐名|1|12}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|13}}\nzh\nBGM: {{兽王园音乐名|1|13}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|14}}\nzh\nBGM: {{兽王园音乐名|1|14}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|15}}\nzh\nBGM: {{兽王园音乐名|1|15}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|16}}\nzh\nBGM: {{兽王园音乐名|1|16}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|17}}\nzh\nBGM: {{兽王园音乐名|1|17}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|18}}\nzh\nBGM: {{兽王园音乐名|1|18}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|19}}\nzh\nBGM: {{兽王园音乐名|1|19}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|20}}\nzh\nBGM: {{兽王园音乐名|1|20}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|21}}\nzh\nBGM: {{兽王园音乐名|1|21}}\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm\nja\nBGM: {{兽王园音乐名|2|22}}\nzh\nBGM: {{兽王园音乐名|1|22}}\n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +794,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -838,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -855,10 +855,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -875,10 +875,10 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -895,10 +895,10 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -915,10 +915,10 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -935,10 +935,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -955,10 +955,10 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -975,10 +975,10 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -995,10 +995,10 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -1015,10 +1015,10 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
@@ -1035,10 +1035,10 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1055,10 +1055,10 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1075,10 +1075,10 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -1095,10 +1095,10 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -1115,10 +1115,10 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>60</v>
@@ -1135,10 +1135,10 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
         <v>61</v>
@@ -1155,10 +1155,10 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -1175,10 +1175,10 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>63</v>
@@ -1195,10 +1195,10 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
         <v>64</v>
@@ -1215,10 +1215,10 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>65</v>
@@ -1235,7 +1235,7 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
         <v>66</v>
@@ -1252,7 +1252,7 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
         <v>67</v>
@@ -1263,7 +1263,7 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
@@ -1274,7 +1274,7 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
         <v>69</v>
